--- a/Game/Game/wave/wave1.xlsx
+++ b/Game/Game/wave/wave1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\mapgame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\Game\Game\wave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60805B55-C244-443C-A1EC-1ED7B0D1D471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F962F9C8-BE2E-4CDD-AC22-7F542F2B09CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{31F1678D-3523-45D6-B27D-F1B77AE3261F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{31F1678D-3523-45D6-B27D-F1B77AE3261F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,15 +570,15 @@
   <dimension ref="A1:BK233"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="AL16" sqref="AL16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="40" width="5.69921875" customWidth="1"/>
+    <col min="1" max="40" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>0</v>
       </c>
@@ -1089,7 +1089,7 @@
       <c r="BJ4" s="7"/>
       <c r="BK4" s="7"/>
     </row>
-    <row r="5" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>0</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="BJ5" s="7"/>
       <c r="BK5" s="7"/>
     </row>
-    <row r="6" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="BJ6" s="7"/>
       <c r="BK6" s="7"/>
     </row>
-    <row r="7" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>0</v>
       </c>
@@ -1518,7 +1518,7 @@
       <c r="BJ7" s="7"/>
       <c r="BK7" s="7"/>
     </row>
-    <row r="8" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
       <c r="BJ8" s="8"/>
       <c r="BK8" s="8"/>
     </row>
-    <row r="9" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>0</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="BJ9" s="8"/>
       <c r="BK9" s="8"/>
     </row>
-    <row r="10" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>0</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="BJ10" s="8"/>
       <c r="BK10" s="8"/>
     </row>
-    <row r="11" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0</v>
       </c>
@@ -2092,7 +2092,7 @@
       <c r="BJ11" s="8"/>
       <c r="BK11" s="8"/>
     </row>
-    <row r="12" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>0</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="BJ12" s="8"/>
       <c r="BK12" s="8"/>
     </row>
-    <row r="13" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>0</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="BJ13" s="8"/>
       <c r="BK13" s="8"/>
     </row>
-    <row r="14" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>0</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="BJ14" s="8"/>
       <c r="BK14" s="8"/>
     </row>
-    <row r="15" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>0</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="BJ15" s="8"/>
       <c r="BK15" s="8"/>
     </row>
-    <row r="16" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:63" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>0</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>0</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>0</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>0</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>0</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>0</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>0</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>0</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>0</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>0</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>0</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>0</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>0</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>0</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>0</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>0</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>0</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>0</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>0</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>0</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>0</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>0</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>0</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>0</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>0</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>0</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>0</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>0</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>0</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>0</v>
       </c>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>0</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>0</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>0</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>0</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>0</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>0</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:40" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>0</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>0</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>0</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>0</v>
       </c>
@@ -7666,7 +7666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>0</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>0</v>
       </c>
@@ -7910,7 +7910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>0</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>0</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>0</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>0</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>0</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>0</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>0</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>0</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>0</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>0</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>0</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="34.950000000000003" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:40" ht="34.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>0</v>
       </c>
@@ -9374,9 +9374,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="178" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="179" spans="1:37" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:40" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="179" spans="1:37" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9415,7 +9415,7 @@
       <c r="AJ179" s="1"/>
       <c r="AK179" s="1"/>
     </row>
-    <row r="232" spans="1:37" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:37" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -9454,7 +9454,7 @@
       <c r="AJ232" s="2"/>
       <c r="AK232" s="2"/>
     </row>
-    <row r="233" spans="1:37" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="233" spans="1:37" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="AQ4:BK7"/>
